--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.9710846555405</v>
+        <v>12.75206033333333</v>
       </c>
       <c r="H2">
-        <v>10.9710846555405</v>
+        <v>38.256181</v>
       </c>
       <c r="I2">
-        <v>0.2669722448236684</v>
+        <v>0.1573122343381959</v>
       </c>
       <c r="J2">
-        <v>0.2669722448236684</v>
+        <v>0.157312234338196</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.171208628559942</v>
+        <v>0.3116673333333334</v>
       </c>
       <c r="N2">
-        <v>0.171208628559942</v>
+        <v>0.935002</v>
       </c>
       <c r="O2">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="P2">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="Q2">
-        <v>1.878344357690113</v>
+        <v>3.974400638595778</v>
       </c>
       <c r="R2">
-        <v>1.878344357690113</v>
+        <v>35.769605747362</v>
       </c>
       <c r="S2">
-        <v>0.006880049747072455</v>
+        <v>0.006519233259794584</v>
       </c>
       <c r="T2">
-        <v>0.006880049747072455</v>
+        <v>0.006519233259794585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.9710846555405</v>
+        <v>12.75206033333333</v>
       </c>
       <c r="H3">
-        <v>10.9710846555405</v>
+        <v>38.256181</v>
       </c>
       <c r="I3">
-        <v>0.2669722448236684</v>
+        <v>0.1573122343381959</v>
       </c>
       <c r="J3">
-        <v>0.2669722448236684</v>
+        <v>0.157312234338196</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.79332847854452</v>
+        <v>3.794584666666667</v>
       </c>
       <c r="N3">
-        <v>3.79332847854452</v>
+        <v>11.383754</v>
       </c>
       <c r="O3">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="P3">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="Q3">
-        <v>41.61692786438457</v>
+        <v>48.38877260927489</v>
       </c>
       <c r="R3">
-        <v>41.61692786438457</v>
+        <v>435.4989534834739</v>
       </c>
       <c r="S3">
-        <v>0.1524355919376789</v>
+        <v>0.07937239460249244</v>
       </c>
       <c r="T3">
-        <v>0.1524355919376789</v>
+        <v>0.07937239460249246</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.9710846555405</v>
+        <v>12.75206033333333</v>
       </c>
       <c r="H4">
-        <v>10.9710846555405</v>
+        <v>38.256181</v>
       </c>
       <c r="I4">
-        <v>0.2669722448236684</v>
+        <v>0.1573122343381959</v>
       </c>
       <c r="J4">
-        <v>0.2669722448236684</v>
+        <v>0.157312234338196</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.67901251537881</v>
+        <v>3.414430666666667</v>
       </c>
       <c r="N4">
-        <v>2.67901251537881</v>
+        <v>10.243292</v>
       </c>
       <c r="O4">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295632</v>
       </c>
       <c r="P4">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295633</v>
       </c>
       <c r="Q4">
-        <v>29.39167309947342</v>
+        <v>43.54102586531688</v>
       </c>
       <c r="R4">
-        <v>29.39167309947342</v>
+        <v>391.869232787852</v>
       </c>
       <c r="S4">
-        <v>0.107656603138917</v>
+        <v>0.07142060647590891</v>
       </c>
       <c r="T4">
-        <v>0.107656603138917</v>
+        <v>0.07142060647590892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.2889512642137</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H5">
-        <v>20.2889512642137</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I5">
-        <v>0.4937147997841498</v>
+        <v>0.2510910513649196</v>
       </c>
       <c r="J5">
-        <v>0.4937147997841498</v>
+        <v>0.2510910513649196</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.171208628559942</v>
+        <v>0.3116673333333334</v>
       </c>
       <c r="N5">
-        <v>0.171208628559942</v>
+        <v>0.935002</v>
       </c>
       <c r="O5">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="P5">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="Q5">
-        <v>3.473643520865529</v>
+        <v>6.343667033201113</v>
       </c>
       <c r="R5">
-        <v>3.473643520865529</v>
+        <v>57.09300329881001</v>
       </c>
       <c r="S5">
-        <v>0.01272335401616148</v>
+        <v>0.01040555516982778</v>
       </c>
       <c r="T5">
-        <v>0.01272335401616148</v>
+        <v>0.01040555516982778</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.2889512642137</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H6">
-        <v>20.2889512642137</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I6">
-        <v>0.4937147997841498</v>
+        <v>0.2510910513649196</v>
       </c>
       <c r="J6">
-        <v>0.4937147997841498</v>
+        <v>0.2510910513649196</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.79332847854452</v>
+        <v>3.794584666666667</v>
       </c>
       <c r="N6">
-        <v>3.79332847854452</v>
+        <v>11.383754</v>
       </c>
       <c r="O6">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="P6">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="Q6">
-        <v>76.96265663034367</v>
+        <v>77.23485614348557</v>
       </c>
       <c r="R6">
-        <v>76.96265663034367</v>
+        <v>695.1137052913701</v>
       </c>
       <c r="S6">
-        <v>0.281900868770825</v>
+        <v>0.1266887988333155</v>
       </c>
       <c r="T6">
-        <v>0.281900868770825</v>
+        <v>0.1266887988333155</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.2889512642137</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H7">
-        <v>20.2889512642137</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I7">
-        <v>0.4937147997841498</v>
+        <v>0.2510910513649196</v>
       </c>
       <c r="J7">
-        <v>0.4937147997841498</v>
+        <v>0.2510910513649196</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.67901251537881</v>
+        <v>3.414430666666667</v>
       </c>
       <c r="N7">
-        <v>2.67901251537881</v>
+        <v>10.243292</v>
       </c>
       <c r="O7">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295632</v>
       </c>
       <c r="P7">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295633</v>
       </c>
       <c r="Q7">
-        <v>54.35435436073924</v>
+        <v>69.49721366569557</v>
       </c>
       <c r="R7">
-        <v>54.35435436073924</v>
+        <v>625.4749229912601</v>
       </c>
       <c r="S7">
-        <v>0.1990905769971632</v>
+        <v>0.1139966973617763</v>
       </c>
       <c r="T7">
-        <v>0.1990905769971632</v>
+        <v>0.1139966973617763</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,10 +894,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -903,49 +906,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>9.834440634491189</v>
+        <v>0.004706</v>
       </c>
       <c r="H8">
-        <v>9.834440634491189</v>
+        <v>0.014118</v>
       </c>
       <c r="I8">
-        <v>0.2393129553921818</v>
+        <v>5.805425597465284E-05</v>
       </c>
       <c r="J8">
-        <v>0.2393129553921818</v>
+        <v>5.805425597465285E-05</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.171208628559942</v>
+        <v>0.3116673333333334</v>
       </c>
       <c r="N8">
-        <v>0.171208628559942</v>
+        <v>0.935002</v>
       </c>
       <c r="O8">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="P8">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="Q8">
-        <v>1.683741093685402</v>
+        <v>0.001466706470666667</v>
       </c>
       <c r="R8">
-        <v>1.683741093685402</v>
+        <v>0.013200358236</v>
       </c>
       <c r="S8">
-        <v>0.006167251728001253</v>
+        <v>2.405847441012995E-06</v>
       </c>
       <c r="T8">
-        <v>0.006167251728001253</v>
+        <v>2.405847441012995E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,10 +956,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -965,49 +968,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>9.834440634491189</v>
+        <v>0.004706</v>
       </c>
       <c r="H9">
-        <v>9.834440634491189</v>
+        <v>0.014118</v>
       </c>
       <c r="I9">
-        <v>0.2393129553921818</v>
+        <v>5.805425597465284E-05</v>
       </c>
       <c r="J9">
-        <v>0.2393129553921818</v>
+        <v>5.805425597465285E-05</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.79332847854452</v>
+        <v>3.794584666666667</v>
       </c>
       <c r="N9">
-        <v>3.79332847854452</v>
+        <v>11.383754</v>
       </c>
       <c r="O9">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="P9">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="Q9">
-        <v>37.30526372937086</v>
+        <v>0.01785731544133333</v>
       </c>
       <c r="R9">
-        <v>37.30526372937086</v>
+        <v>0.160715838972</v>
       </c>
       <c r="S9">
-        <v>0.1366427136935415</v>
+        <v>2.92914618685537E-05</v>
       </c>
       <c r="T9">
-        <v>0.1366427136935415</v>
+        <v>2.92914618685537E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.004706</v>
+      </c>
+      <c r="H10">
+        <v>0.014118</v>
+      </c>
+      <c r="I10">
+        <v>5.805425597465284E-05</v>
+      </c>
+      <c r="J10">
+        <v>5.805425597465285E-05</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.414430666666667</v>
+      </c>
+      <c r="N10">
+        <v>10.243292</v>
+      </c>
+      <c r="O10">
+        <v>0.4540054165295632</v>
+      </c>
+      <c r="P10">
+        <v>0.4540054165295633</v>
+      </c>
+      <c r="Q10">
+        <v>0.01606831071733333</v>
+      </c>
+      <c r="R10">
+        <v>0.144614796456</v>
+      </c>
+      <c r="S10">
+        <v>2.635694666508615E-05</v>
+      </c>
+      <c r="T10">
+        <v>2.635694666508615E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>9.834440634491189</v>
-      </c>
-      <c r="H10">
-        <v>9.834440634491189</v>
-      </c>
-      <c r="I10">
-        <v>0.2393129553921818</v>
-      </c>
-      <c r="J10">
-        <v>0.2393129553921818</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.67901251537881</v>
-      </c>
-      <c r="N10">
-        <v>2.67901251537881</v>
-      </c>
-      <c r="O10">
-        <v>0.4032501701067193</v>
-      </c>
-      <c r="P10">
-        <v>0.4032501701067193</v>
-      </c>
-      <c r="Q10">
-        <v>26.34658954155182</v>
-      </c>
-      <c r="R10">
-        <v>26.34658954155182</v>
-      </c>
-      <c r="S10">
-        <v>0.09650298997063904</v>
-      </c>
-      <c r="T10">
-        <v>0.09650298997063904</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>47.951367</v>
+      </c>
+      <c r="H11">
+        <v>143.854101</v>
+      </c>
+      <c r="I11">
+        <v>0.5915386600409097</v>
+      </c>
+      <c r="J11">
+        <v>0.5915386600409098</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3116673333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.935002</v>
+      </c>
+      <c r="O11">
+        <v>0.0414413620607491</v>
+      </c>
+      <c r="P11">
+        <v>0.0414413620607491</v>
+      </c>
+      <c r="Q11">
+        <v>14.944874682578</v>
+      </c>
+      <c r="R11">
+        <v>134.503872143202</v>
+      </c>
+      <c r="S11">
+        <v>0.02451416778368571</v>
+      </c>
+      <c r="T11">
+        <v>0.02451416778368572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>47.951367</v>
+      </c>
+      <c r="H12">
+        <v>143.854101</v>
+      </c>
+      <c r="I12">
+        <v>0.5915386600409097</v>
+      </c>
+      <c r="J12">
+        <v>0.5915386600409098</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.794584666666667</v>
+      </c>
+      <c r="N12">
+        <v>11.383754</v>
+      </c>
+      <c r="O12">
+        <v>0.5045532214096876</v>
+      </c>
+      <c r="P12">
+        <v>0.5045532214096876</v>
+      </c>
+      <c r="Q12">
+        <v>181.955521963906</v>
+      </c>
+      <c r="R12">
+        <v>1637.599697675154</v>
+      </c>
+      <c r="S12">
+        <v>0.2984627365120111</v>
+      </c>
+      <c r="T12">
+        <v>0.2984627365120111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>47.951367</v>
+      </c>
+      <c r="H13">
+        <v>143.854101</v>
+      </c>
+      <c r="I13">
+        <v>0.5915386600409097</v>
+      </c>
+      <c r="J13">
+        <v>0.5915386600409098</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.414430666666667</v>
+      </c>
+      <c r="N13">
+        <v>10.243292</v>
+      </c>
+      <c r="O13">
+        <v>0.4540054165295632</v>
+      </c>
+      <c r="P13">
+        <v>0.4540054165295633</v>
+      </c>
+      <c r="Q13">
+        <v>163.726617993388</v>
+      </c>
+      <c r="R13">
+        <v>1473.539561940492</v>
+      </c>
+      <c r="S13">
+        <v>0.2685617557452129</v>
+      </c>
+      <c r="T13">
+        <v>0.268561755745213</v>
       </c>
     </row>
   </sheetData>
